--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012320-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012320-1.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5015,12 +5015,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8077,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10309,12 +10309,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10519,12 +10519,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11781,12 +11781,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11865,12 +11865,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12075,12 +12075,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12413,12 +12413,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13131,12 +13131,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13257,12 +13257,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13635,12 +13635,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14139,12 +14139,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14181,12 +14181,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14265,12 +14265,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14307,12 +14307,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14895,12 +14895,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15235,12 +15235,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16167,12 +16167,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16293,12 +16293,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16335,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16797,12 +16797,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16839,12 +16839,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16923,12 +16923,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17091,12 +17091,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17217,12 +17217,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17469,12 +17469,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17889,12 +17889,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17931,12 +17931,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18141,12 +18141,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18183,12 +18183,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19149,12 +19149,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19359,12 +19359,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19569,12 +19569,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19867,12 +19867,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20375,12 +20375,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20417,12 +20417,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20963,12 +20963,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21089,12 +21089,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21131,12 +21131,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21727,12 +21727,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22105,12 +22105,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22231,12 +22231,12 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22315,12 +22315,12 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22987,12 +22987,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24007,12 +24007,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24049,12 +24049,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24385,12 +24385,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24553,12 +24553,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25267,12 +25267,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26111,12 +26111,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26447,12 +26447,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26787,12 +26787,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27169,12 +27169,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27765,12 +27765,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27933,12 +27933,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28059,12 +28059,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28143,12 +28143,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28227,12 +28227,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28269,12 +28269,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28819,12 +28819,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29201,12 +29201,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29411,12 +29411,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29831,12 +29831,12 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29915,12 +29915,12 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30545,12 +30545,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30881,12 +30881,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31091,12 +31091,12 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31217,12 +31217,12 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31427,12 +31427,12 @@
       <c r="H736" t="inlineStr"/>
       <c r="I736" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -31593,12 +31593,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31933,12 +31933,12 @@
       <c r="H748" t="inlineStr"/>
       <c r="I748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32017,12 +32017,12 @@
       <c r="H750" t="inlineStr"/>
       <c r="I750" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32353,12 +32353,12 @@
       <c r="H758" t="inlineStr"/>
       <c r="I758" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32521,12 +32521,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32651,12 +32651,12 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32903,12 +32903,12 @@
       <c r="H771" t="inlineStr"/>
       <c r="I771" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32945,12 +32945,12 @@
       <c r="H772" t="inlineStr"/>
       <c r="I772" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33155,12 +33155,12 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33281,12 +33281,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33407,12 +33407,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33533,12 +33533,12 @@
       <c r="H786" t="inlineStr"/>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33743,12 +33743,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33869,12 +33869,12 @@
       <c r="H794" t="inlineStr"/>
       <c r="I794" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34329,12 +34329,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34623,12 +34623,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34795,12 +34795,12 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34837,12 +34837,12 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35391,12 +35391,12 @@
       <c r="H830" t="inlineStr"/>
       <c r="I830" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35517,12 +35517,12 @@
       <c r="H833" t="inlineStr"/>
       <c r="I833" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35601,12 +35601,12 @@
       <c r="H835" t="inlineStr"/>
       <c r="I835" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35899,12 +35899,12 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36151,12 +36151,12 @@
       <c r="H848" t="inlineStr"/>
       <c r="I848" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36865,12 +36865,12 @@
       <c r="H865" t="inlineStr"/>
       <c r="I865" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37159,12 +37159,12 @@
       <c r="H872" t="inlineStr"/>
       <c r="I872" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37201,12 +37201,12 @@
       <c r="H873" t="inlineStr"/>
       <c r="I873" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37583,12 +37583,12 @@
       <c r="H882" t="inlineStr"/>
       <c r="I882" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37835,12 +37835,12 @@
       <c r="H888" t="inlineStr"/>
       <c r="I888" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
